--- a/documentacion/Backlog.xlsx
+++ b/documentacion/Backlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -83,14 +83,6 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t xml:space="preserve">Modelo de Tabla
-Diseño de UI
-Formulario de registro
-Listado de labs registrados ¿?
-Create, read, update, delete a laboratorios registrados
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Se verifica disponibilidad para poder asignar temporalmente el laboratorio
 </t>
   </si>
@@ -118,26 +110,32 @@
 Opcion "Filtrar disponibles" </t>
   </si>
   <si>
-    <t xml:space="preserve">Diseño UI
+    <t>Los bolsistas responsables de cada laboratorio son escogidos por sorteo</t>
+  </si>
+  <si>
+    <t>Se busca de acuerdo a diferentes filtros el laboratorio correspondiente al profesor</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>Modelo de Tabla
+Diseño de UI
+Formulario de registro de laboratorios
+Listado de labs registrados ¿?
+Create, read, update, delete a laboratorios registrados</t>
+  </si>
+  <si>
+    <t>Diseño UI
 Formulario de busqueda integrado con filtros
-Opcion para limpiar busqueda
-</t>
-  </si>
-  <si>
-    <t>Los bolsistas responsables de cada laboratorio son escogidos por sorteo</t>
-  </si>
-  <si>
-    <t>Se busca de acuerdo a diferentes filtros el laboratorio correspondiente al profesor</t>
-  </si>
-  <si>
-    <t>Historia</t>
+Opcion para limpiar busqueda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,7 +279,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -316,7 +313,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -492,27 +488,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.85546875" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -520,7 +516,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
@@ -532,7 +528,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="105">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -542,14 +538,14 @@
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -559,14 +555,14 @@
       <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
+      <c r="D6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -577,13 +573,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="60">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -594,11 +590,11 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -609,11 +605,11 @@
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="105">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -621,14 +617,14 @@
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -639,21 +635,21 @@
         <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -661,13 +657,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -678,7 +674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -689,7 +685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -700,7 +696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -718,24 +714,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentacion/Backlog.xlsx
+++ b/documentacion/Backlog.xlsx
@@ -489,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -528,182 +528,190 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="105">
-      <c r="A5" s="4">
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="105">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45">
-      <c r="A6" s="4">
+    <row r="7" spans="1:6" ht="45">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B7" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="60">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="60">
       <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="60">
+      <c r="A9" s="4">
         <v>2</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B9" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="4">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B10" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="105">
-      <c r="A10" s="4">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="105">
+      <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B11" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="4">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B12" s="4">
         <v>7</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="B14" t="s">
+    <row r="15" spans="1:6">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
         <v>2</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B20" s="1">
         <v>4</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>9</v>
       </c>
     </row>

--- a/documentacion/Backlog.xlsx
+++ b/documentacion/Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Verificar disponibilidad de laboratorio</t>
   </si>
@@ -129,6 +129,24 @@
     <t>Diseño UI
 Formulario de busqueda integrado con filtros
 Opcion para limpiar busqueda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelo de tabla Users
+Definir roles
+Verificar en Play 2 el tema de autentificación de usuarios
+Verificar en Play 2 el tema roles para usuarios 
+Diseño de UI de login (HOME)
+</t>
+  </si>
+  <si>
+    <t>Registro de Usuarios</t>
+  </si>
+  <si>
+    <t>Tipos de usuario:
+Supervisor: 
+Profesor: Ver su horario
+Secretaria: Realiza actividade de bolsista, realiza horario, reserva laboratorio
+Bolsista: Ver lista de laboratorios (junto a sus estados: libre, ocupado, prestado), Prestar laboratorio a alumno, Editar lista de sw de su laboratorio</t>
   </si>
 </sst>
 </file>
@@ -492,15 +510,16 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.85546875" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="132.140625" customWidth="1"/>
+    <col min="5" max="5" width="63.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -528,20 +547,30 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+    <row r="5" spans="1:6" ht="120">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="105">
+    <row r="6" spans="1:6" ht="90">
       <c r="A6" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
@@ -555,10 +584,10 @@
     </row>
     <row r="7" spans="1:6" ht="45">
       <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
         <v>3</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>0</v>
@@ -572,10 +601,10 @@
     </row>
     <row r="8" spans="1:6" ht="60">
       <c r="A8" s="4">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4">
         <v>4</v>
-      </c>
-      <c r="B8" s="4">
-        <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>1</v>
@@ -589,10 +618,10 @@
     </row>
     <row r="9" spans="1:6" ht="60">
       <c r="A9" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
@@ -604,10 +633,10 @@
     </row>
     <row r="10" spans="1:6" ht="30">
       <c r="A10" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>3</v>
@@ -619,10 +648,10 @@
     </row>
     <row r="11" spans="1:6" ht="105">
       <c r="A11" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>23</v>
@@ -634,10 +663,10 @@
     </row>
     <row r="12" spans="1:6" ht="30">
       <c r="A12" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>11</v>

--- a/documentacion/Backlog.xlsx
+++ b/documentacion/Backlog.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="19440" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>Verificar disponibilidad de laboratorio</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Dar de baja una pc</t>
   </si>
   <si>
-    <t>Registrar historial de uso de las computadoras</t>
-  </si>
-  <si>
     <t>Registrar laboratorios</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Descripción</t>
   </si>
   <si>
     <t>Notas</t>
@@ -80,9 +74,6 @@
     <t>Tareas</t>
   </si>
   <si>
-    <t>Fecha</t>
-  </si>
-  <si>
     <t xml:space="preserve">Se verifica disponibilidad para poder asignar temporalmente el laboratorio
 </t>
   </si>
@@ -113,30 +104,12 @@
     <t>Los bolsistas responsables de cada laboratorio son escogidos por sorteo</t>
   </si>
   <si>
-    <t>Se busca de acuerdo a diferentes filtros el laboratorio correspondiente al profesor</t>
-  </si>
-  <si>
     <t>Historia</t>
-  </si>
-  <si>
-    <t>Modelo de Tabla
-Diseño de UI
-Formulario de registro de laboratorios
-Listado de labs registrados ¿?
-Create, read, update, delete a laboratorios registrados</t>
   </si>
   <si>
     <t>Diseño UI
 Formulario de busqueda integrado con filtros
 Opcion para limpiar busqueda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modelo de tabla Users
-Definir roles
-Verificar en Play 2 el tema de autentificación de usuarios
-Verificar en Play 2 el tema roles para usuarios 
-Diseño de UI de login (HOME)
-</t>
   </si>
   <si>
     <t>Registro de Usuarios</t>
@@ -147,6 +120,61 @@
 Profesor: Ver su horario
 Secretaria: Realiza actividade de bolsista, realiza horario, reserva laboratorio
 Bolsista: Ver lista de laboratorios (junto a sus estados: libre, ocupado, prestado), Prestar laboratorio a alumno, Editar lista de sw de su laboratorio</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint </t>
+  </si>
+  <si>
+    <t>Modelo de Tabla Laboratorios
+Diseño de UI
+Formulario de registro de laboratorios
+Listado de labs registrados 
+Create, read, update, delete a laboratorios registrados</t>
+  </si>
+  <si>
+    <t>Desplegar, probar compatibilidad y diseñar la bd</t>
+  </si>
+  <si>
+    <t>Desplegar el  proyecto en RoR sobre Jruby que es un interprete de Ruby para la JVM</t>
+  </si>
+  <si>
+    <t>Modelo de tabla Usuarios
+Definir roles
+Verificar en RoR el tema de autentificación de usuarios
+Verificar en RoR el tema roles para usuarios 
+Diseño de UI de login (HOME)
+Create, read, update, delete a Usuarios registrados</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Registrar computadoras</t>
+  </si>
+  <si>
+    <t>Se busca de acuerdo a diferentes filtros el laboratorio correspondiente al profesor
+Registrar profesores.</t>
+  </si>
+  <si>
+    <t>Modelo de tabla de Computadoras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigar el diseño de BD de una horario y su funcionamiento interno.
+</t>
+  </si>
+  <si>
+    <t>Leer documentación y analizar la funcionalidad del Jruby.
+Ver las tecnicas de despliegue de una aplicación de RoR sobre JRuby
+Instalar el Ruby On Rails desplegado sobre Jruby.
+Actualizar framework, instalar gemas necesarias.
+Realizar pruebas de integración con el framework instalado.
+Diseñar un esquema de base de datos Preliminar (Bosquejo).</t>
   </si>
 </sst>
 </file>
@@ -178,7 +206,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -186,27 +214,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -223,7 +318,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -509,16 +604,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="132.140625" customWidth="1"/>
-    <col min="5" max="5" width="63.7109375" customWidth="1"/>
+    <col min="5" max="5" width="70.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -527,154 +622,189 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="105">
+      <c r="A4" s="3">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="134.25" customHeight="1">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="90">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="45">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="45">
+      <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="E9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="120">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="90">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="60">
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="45">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="60">
-      <c r="A8" s="4">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="60">
-      <c r="A9" s="4">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="4">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="105">
-      <c r="A11" s="4">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="D12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="4">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
@@ -683,24 +813,28 @@
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -711,7 +845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>3</v>
       </c>
@@ -722,7 +856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>4</v>
       </c>
@@ -733,18 +867,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" s="1">
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F9:F11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -756,7 +897,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -768,7 +909,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentacion/Backlog.xlsx
+++ b/documentacion/Backlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="19440" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>Verificar disponibilidad de laboratorio</t>
   </si>
@@ -162,9 +162,6 @@
 Registrar profesores.</t>
   </si>
   <si>
-    <t>Modelo de tabla de Computadoras</t>
-  </si>
-  <si>
     <t xml:space="preserve">Investigar el diseño de BD de una horario y su funcionamiento interno.
 </t>
   </si>
@@ -176,12 +173,37 @@
 Realizar pruebas de integración con el framework instalado.
 Diseñar un esquema de base de datos Preliminar (Bosquejo).</t>
   </si>
+  <si>
+    <t>Implementar filtros de listado en BD (laboratorio, estado)
+Diseñar la UI para mostrado de los listados</t>
+  </si>
+  <si>
+    <t>Implementar filtros de busqueda en BD (laboratorio, estado)
+Diseñar la UI para formulario y mostrado de busquedas</t>
+  </si>
+  <si>
+    <t>Diseño de UI 
+Verificar rol de acceso al metodo
+Implemetar la eliminacion en BD</t>
+  </si>
+  <si>
+    <t>Modelo de tabla de Computadoras
+Diseñar de UI Registro
+Verificar rol de acceso al metodo
+Implementar validaciones de registro de pcs
+Implementar el Registro en BD</t>
+  </si>
+  <si>
+    <t>Implemetar busqueda de laboratorios disponibles en BD
+Implementar la UI para el formulario de prestamo de laboratorios
+Realizar el registro del prestamo incluyendo el DNI del alumno en la tabla previamente creada.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +213,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -270,13 +300,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -294,6 +321,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -302,6 +332,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -318,7 +354,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -602,13 +638,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78.42578125" bestFit="1" customWidth="1"/>
@@ -617,269 +653,291 @@
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="105">
-      <c r="A4" s="3">
+    <row r="4" spans="1:8" ht="90">
+      <c r="A4" s="2">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="134.25" customHeight="1">
-      <c r="A5" s="3">
+    <row r="5" spans="1:8" ht="134.25" customHeight="1">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="90">
-      <c r="A6" s="3">
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" ht="90">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="45">
-      <c r="A7" s="3">
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="45">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="45">
-      <c r="A8" s="3">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="45">
+      <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45">
-      <c r="A9" s="3">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="9" t="s">
+    <row r="10" spans="1:8" ht="60">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" ht="60">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="11"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="3">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="60">
-      <c r="A11" s="3">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:8">
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" ht="30">
+      <c r="A17" s="13">
         <v>1</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="13">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
+      <c r="D17" s="14"/>
+      <c r="E17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" ht="30">
+      <c r="A18" s="13">
         <v>3</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
+      <c r="D18" s="14"/>
+      <c r="E18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" ht="45">
+      <c r="A19" s="13">
         <v>4</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="13">
         <v>3</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
+      <c r="D19" s="14"/>
+      <c r="E19" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" ht="75">
+      <c r="A20" s="13">
         <v>3</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="13">
         <v>4</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E20" t="s">
-        <v>38</v>
-      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -897,7 +955,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -909,7 +967,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentacion/Backlog.xlsx
+++ b/documentacion/Backlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="19440" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>Verificar disponibilidad de laboratorio</t>
   </si>
@@ -197,6 +197,31 @@
     <t>Implemetar busqueda de laboratorios disponibles en BD
 Implementar la UI para el formulario de prestamo de laboratorios
 Realizar el registro del prestamo incluyendo el DNI del alumno en la tabla previamente creada.</t>
+  </si>
+  <si>
+    <t>Diseño de UI para solicitud extemporanea
+Implemetar consulta de disponibilidad por fecha y hora.
+Implementar regsitro extemporaneo</t>
+  </si>
+  <si>
+    <t>Diseño de UI para la asignación de bolsista a un laboratorio.
+Verificar rol de acceso al metodo.
+Implementar el registro en BD .</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Tener un invetario actualizado a todo momento, de esa manera se sabe el estado de las computadoras y en consecuencia del laboratorio</t>
+  </si>
+  <si>
+    <t>Realizando esta busqueda con filtro podemos observar las computadoras que esten en algun laboratorio especial o tengan alguna observacion tecnica</t>
+  </si>
+  <si>
+    <t>Funcionalidad a la que solo tiene acceso la secretaria de la oficina de soporte tecnico para indicar que computadora ya no forma parte de los laboratorios</t>
+  </si>
+  <si>
+    <t>Funcionalidad a la que solo tiene acceso la secretaria de la oficina de soporte tecnico para indicar que computadora ha sido adquirida.</t>
   </si>
 </sst>
 </file>
@@ -300,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -319,18 +344,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -338,6 +351,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -354,7 +385,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -640,15 +671,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="132.140625" customWidth="1"/>
+    <col min="4" max="4" width="139.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="70.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
@@ -694,7 +725,7 @@
       <c r="E4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -714,7 +745,7 @@
       <c r="E5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:8" ht="90">
       <c r="A6" s="2">
@@ -732,7 +763,7 @@
       <c r="E6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:8" ht="45">
       <c r="A7" s="2">
@@ -788,7 +819,7 @@
       <c r="E9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="13" t="s">
         <v>35</v>
       </c>
     </row>
@@ -808,7 +839,7 @@
       <c r="E10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:8" ht="60">
       <c r="A11" s="2">
@@ -823,11 +854,13 @@
       <c r="D11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="11"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="E11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" ht="45">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -840,7 +873,9 @@
       <c r="D12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="F12" s="7" t="s">
         <v>34</v>
       </c>
@@ -849,6 +884,7 @@
       <c r="A13" t="s">
         <v>5</v>
       </c>
+      <c r="E13" s="16"/>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" t="s">
@@ -857,92 +893,106 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="14"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:7" ht="30">
-      <c r="A17" s="13">
+      <c r="A17" s="9">
         <v>1</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="9">
         <v>1</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15" t="s">
+      <c r="D17" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="14"/>
+      <c r="F17" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="30">
-      <c r="A18" s="13">
+      <c r="A18" s="9">
         <v>3</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="9">
         <v>2</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15" t="s">
+      <c r="D18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="14"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:7" ht="45">
-      <c r="A19" s="13">
+      <c r="A19" s="9">
         <v>4</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="9">
         <v>3</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15" t="s">
+      <c r="D19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="14"/>
+      <c r="F19" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="75">
-      <c r="A20" s="13">
+      <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="9">
         <v>4</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15" t="s">
+      <c r="D20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="12"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -955,7 +1005,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -967,7 +1017,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentacion/Backlog.xlsx
+++ b/documentacion/Backlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="19440" windowHeight="8010"/>
@@ -227,8 +227,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,6 +352,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -363,12 +369,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -385,7 +385,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -459,6 +459,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -493,6 +494,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -668,14 +670,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78.42578125" bestFit="1" customWidth="1"/>
@@ -684,12 +686,12 @@
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -709,7 +711,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="90">
+    <row r="4" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>5</v>
       </c>
@@ -725,11 +727,11 @@
       <c r="E4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="134.25" customHeight="1">
+    <row r="5" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -745,9 +747,9 @@
       <c r="E5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="90">
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -763,9 +765,9 @@
       <c r="E6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" ht="45">
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -781,9 +783,11 @@
       <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="45">
+      <c r="F7" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -799,11 +803,9 @@
       <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="45">
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -819,11 +821,11 @@
       <c r="E9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="60">
+    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -839,9 +841,9 @@
       <c r="E10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" ht="60">
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -857,10 +859,10 @@
       <c r="E11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="17"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="45">
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -880,19 +882,19 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="E13" s="12"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -910,7 +912,7 @@
       </c>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:7" ht="30">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>1</v>
       </c>
@@ -920,17 +922,17 @@
       <c r="C17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="13" t="s">
         <v>48</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30">
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>3</v>
       </c>
@@ -946,9 +948,9 @@
       <c r="E18" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="1:7" ht="45">
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>4</v>
       </c>
@@ -964,11 +966,11 @@
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="75">
+    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>3</v>
       </c>
@@ -984,15 +986,16 @@
       <c r="E20" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="15"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1000,24 +1003,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
